--- a/biology/Botanique/Saururus/Saururus.xlsx
+++ b/biology/Botanique/Saururus/Saururus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les saurures - Saururus - sont un genre de plantes herbacées de la famille des Saururacées.
 Nom chinois du genre : 三白草属
@@ -512,10 +524,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom du genre vient du grec Σαύρα Sáura (lézard) et ουρά ourá (queue)[1],[2]. Le nom est attribué, en 1693, par Charles Plumier à des plantes placées actuellement principalement  dans les genres Piper ou Peperomia, en raison de leur inflorescence longue et recourbée, pouvant faire penser à une queue de lézard.
-En 1753, Linné reprend le nom donné par Charles Plumier pour l'espèce dénommée soit Saururus foliis profunde cordatis ovato-lanceolatis, soit Serpentaria repens, espèce qu'il rebaptise Saururus cernuus et qui devient l'espèce-type du genre[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom du genre vient du grec Σαύρα Sáura (lézard) et ουρά ourá (queue),. Le nom est attribué, en 1693, par Charles Plumier à des plantes placées actuellement principalement  dans les genres Piper ou Peperomia, en raison de leur inflorescence longue et recourbée, pouvant faire penser à une queue de lézard.
+En 1753, Linné reprend le nom donné par Charles Plumier pour l'espèce dénommée soit Saururus foliis profunde cordatis ovato-lanceolatis, soit Serpentaria repens, espèce qu'il rebaptise Saururus cernuus et qui devient l'espèce-type du genre.
 En 1820, Ivan Ivanovič Martinov définit la famille des Saururacées dont le genre Saururus est le type.
 </t>
         </is>
@@ -545,7 +559,9 @@
           <t>Autres noms</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe un homonyme à Saururus L. : Saururus Mill.
 Un genre synonyme a été décrit en 1848 : Saururopsis Turcz.
@@ -577,7 +593,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre, type de la famille, comprend des plantes herbacées vivaces et rhizomateuses.
 Les feuilles, simples, entières et alternes, possèdent deux stipules membraneux.
@@ -614,14 +632,16 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Les espèces de ce genre, dont la liste est issue des index IPNI, Tropicos et GRIN, sont actuellement au nombre de deux, plus les synonymes :
 Saururus cavaleriei H.Lév. (1911) : voir Gymnotheca chinensis Decne.
 Saururus cernuus Thunb. (1784) : voir Saururus chinensis (Lour.) Baill.
 Saururus cernuus L. (1753)
 Saururus cernuus f. submersus Glück (1923)
-Saururus chinensis (Lour.) Baill. (1871) - synonymes : Spathium chinense Lour., Saururopsis chinensis Turcz., Saururus cernuus Thunb., Saururus cumingii C. DC., Saururus loureiroi Decne.[4]
+Saururus chinensis (Lour.) Baill. (1871) - synonymes : Spathium chinense Lour., Saururopsis chinensis Turcz., Saururus cernuus Thunb., Saururus cumingii C. DC., Saururus loureiroi Decne.
 Saururus cumingii C. DC. (1868) : voir Saururus chinensis (Lour.) Baill.
 Saururus loureiroi Decne. (1845) : voir Saururus chinensis (Lour.) Baill.
 Saururus lucidus Donn (1804)
@@ -654,7 +674,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Une espèce est originaire d'Asie orientale et une autre d'Amérique du nord.
 Leur diffusion horticole est très large dans tous les pays à climat tempéré.
